--- a/xlsx/元数据_intext.xlsx
+++ b/xlsx/元数据_intext.xlsx
@@ -26,22 +26,22 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%96%99</t>
   </si>
   <si>
-    <t>資料</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_元数据</t>
+    <t>资料</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_元数据</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A</t>
   </si>
   <si>
-    <t>資訊</t>
+    <t>资讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>歷史</t>
+    <t>历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%BA%90</t>
@@ -53,25 +53,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>電子</t>
+    <t>电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E6%9B%B8%E9%A4%A8%E5%93%A1</t>
   </si>
   <si>
-    <t>圖書館員</t>
+    <t>图书馆员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>電腦</t>
+    <t>电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -83,25 +83,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E6%96%87</t>
   </si>
   <si>
-    <t>希臘文</t>
+    <t>希腊文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%8B%E8%A9%9E</t>
   </si>
   <si>
-    <t>介詞</t>
+    <t>介词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E7%B6%B4</t>
   </si>
   <si>
-    <t>前綴</t>
+    <t>前缀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E8%AB%96</t>
   </si>
   <si>
-    <t>知識論</t>
+    <t>知识论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%84%91%E7%BD%91%E7%BB%9C</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E5%BD%B1%E5%83%8F</t>
   </si>
   <si>
-    <t>數位影像</t>
+    <t>数位影像</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E5%BD%A9%E6%B7%B1%E5%BA%A6</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%AB%E9%96%80%E9%80%9F%E5%BA%A6</t>
   </si>
   <si>
-    <t>快門速度</t>
+    <t>快门速度</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/keyword_stuffing</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E8%B3%87%E6%96%99%E8%A8%BB%E5%86%8A%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>元資料註冊系統</t>
+    <t>元资料注册系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%96%99%E5%BA%AB</t>
   </si>
   <si>
-    <t>資料庫</t>
+    <t>资料库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISBN</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E8%B3%87%E8%A8%8A%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>地理資訊系統</t>
+    <t>地理资讯系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Francis_Bretherton</t>
@@ -185,13 +185,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E8%B3%87%E8%A8%8A%E6%A8%99%E6%BA%96%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>美國國家資訊標準組織</t>
+    <t>美国国家资讯标准组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E6%85%A7%E8%B2%A1%E7%94%A2%E6%AC%8A</t>
   </si>
   <si>
-    <t>智慧財產權</t>
+    <t>智慧财产权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%97%E6%8E%A7%E8%AF%8D%E8%A1%A8</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%BA%90%E6%8F%8F%E8%BF%B0%E6%A1%86%E6%9E%B6</t>
   </si>
   <si>
-    <t>資源描述框架</t>
+    <t>资源描述框架</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%A8%81%E5%8D%81%E8%BF%9B%E5%88%B6%E5%9B%BE%E4%B9%A6%E5%88%86%E7%B1%BB%E6%B3%95</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E5%96%AE%E7%9F%A5%E8%AD%98%E7%B5%84%E7%B9%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>簡單知識組織系統</t>
+    <t>简单知识组织系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A9%E9%80%9A</t>
@@ -281,13 +281,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E6%A8%99%E6%BA%96%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國家標準協會</t>
+    <t>美国国家标准协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%8C%96%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際標準化組織</t>
+    <t>国际标准化组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E6%A0%BC%E5%BC%8F</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B1%A4_(%E5%85%83%E6%95%B8%E6%93%9A)</t>
   </si>
   <si>
-    <t>標籤 (元數據)</t>
+    <t>标籤 (元数据)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E6%95%B0%E5%AD%A6</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>軟體工程</t>
+    <t>软体工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%80%E6%B1%82%E5%88%86%E6%9E%90</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>軟件設計</t>
+    <t>软件设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%84%91%E7%BC%96%E7%A8%8B</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94%E6%B8%AC%E8%A9%A6</t>
   </si>
   <si>
-    <t>軟體測試</t>
+    <t>软体测试</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AF%E4%BB%B6%E9%83%A8%E7%BD%B2</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94%E7%B6%AD%E8%AD%B7</t>
   </si>
   <si>
-    <t>軟體維護</t>
+    <t>软体维护</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E6%8D%AE%E5%BB%BA%E6%A8%A1</t>
@@ -485,13 +485,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94%E8%80%83%E5%8F%A4%E5%AD%B8</t>
   </si>
   <si>
-    <t>軟體考古學</t>
+    <t>软体考古学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94%E9%A9%97%E8%AD%89%E5%8F%8A%E7%A2%BA%E8%AA%8D</t>
   </si>
   <si>
-    <t>軟體驗證及確認</t>
+    <t>软体验证及确认</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%93%E6%9E%84%E5%8C%96%E5%88%86%E6%9E%90</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%80%E9%BB%9E%E5%B0%8E%E5%90%91%E7%A8%8B%E5%BC%8F%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>觀點導向程式設計</t>
+    <t>观点导向程式设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A2%E5%90%91%E5%AF%B9%E8%B1%A1%E7%BC%96%E7%A8%8B</t>
@@ -635,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%B5%B1%E5%BB%BA%E6%A8%A1%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>系統建模語言</t>
+    <t>系统建模语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%B8%88</t>
@@ -647,19 +647,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E7%89%B9%C2%B7%E8%B2%9D%E5%85%8B</t>
   </si>
   <si>
-    <t>肯特·貝克</t>
+    <t>肯特·贝克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E4%BE%86%E8%BF%AA%C2%B7%E5%B8%83%E5%8D%80</t>
   </si>
   <si>
-    <t>葛來迪·布區</t>
+    <t>葛来迪·布区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%91%9E%E5%BE%B7%C2%B7%E5%B8%83%E9%AD%AF%E5%85%8B%E6%96%AF</t>
   </si>
   <si>
-    <t>佛瑞德·布魯克斯</t>
+    <t>佛瑞德·布鲁克斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%BE%B7%C2%B7%E5%9D%8E%E5%AE%81%E5%AE%89</t>
@@ -671,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%88%A9-%E7%B4%84%E7%BF%B0%C2%B7%E9%81%94%E7%88%BE</t>
   </si>
   <si>
-    <t>奧利-約翰·達爾</t>
+    <t>奥利-约翰·达尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%85%B9%E6%A0%BC%C2%B7%E8%BF%AA%E6%9D%B0%E6%96%AF%E7%89%B9%E6%8B%89</t>
@@ -689,25 +689,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%B0%BC%C2%B7%E9%9C%8D%E7%88%BE</t>
   </si>
   <si>
-    <t>東尼·霍爾</t>
+    <t>东尼·霍尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%93%A6%E7%88%BE%C2%B7%E9%9B%85%E5%90%84%E5%B8%83%E6%A3%AE</t>
   </si>
   <si>
-    <t>伊瓦爾·雅各布森</t>
+    <t>伊瓦尔·雅各布森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%89%B9%E8%98%AD%C2%B7%E9%82%81%E8%80%B6</t>
   </si>
   <si>
-    <t>伯特蘭·邁耶</t>
+    <t>伯特兰·迈耶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E5%A3%AB%C2%B7%E8%98%AD%E5%AF%B6</t>
   </si>
   <si>
-    <t>詹姆士·蘭寶</t>
+    <t>詹姆士·兰宝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%85%8B%E5%8A%B3%E6%96%AF%C2%B7%E7%BB%B4%E5%B0%94%E7%89%B9</t>
@@ -719,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E5%B0%A4%E7%99%BB</t>
   </si>
   <si>
-    <t>愛德華·尤登</t>
+    <t>爱德华·尤登</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E7%A7%91%E5%AD%A6</t>
@@ -731,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E6%A9%9F%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>計算機工程</t>
+    <t>计算机工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E4%B8%9A%E5%B7%A5%E7%A8%8B</t>
@@ -743,25 +743,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>管理學</t>
+    <t>管理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8</t>
   </si>
   <si>
-    <t>數學</t>
+    <t>数学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E6%A1%88%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>專案管理</t>
+    <t>专案管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E8%B3%AA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>品質管理</t>
+    <t>品质管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E9%99%A9%E7%AE%A1%E7%90%86</t>
@@ -773,13 +773,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%9B%A0%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>人因工程學</t>
+    <t>人因工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%B5%B1%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>系統工程</t>
+    <t>系统工程</t>
   </si>
 </sst>
 </file>
